--- a/example/MOMO價格追蹤/物品欄.xlsx
+++ b/example/MOMO價格追蹤/物品欄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">商品</t>
   </si>
@@ -105,10 +105,16 @@
     <t xml:space="preserve">https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=10372280&amp;seller=20190703150015290&amp;osm=Ad09&amp;utm_source=BD_015457&amp;utm_medium=Google-SEM&amp;scm_activity=202305020429t78po3gu&amp;gclid=Cj0KCQjw756lBhDMARIsAEI0AgkKzf_28JK442SIDW88jIrLRpIrLK0_G4K7w-v_3WOnSubDuW7q_9QaAuwKEALw_wcB</t>
   </si>
   <si>
-    <t xml:space="preserve">POCO F5 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.momoshop.com.tw/goods.momo?i_code=11413776&amp;mdiv=searchEngine&amp;oid=1_1&amp;kw=poco%20f5</t>
+    <t xml:space="preserve">後背包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=11538594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUJI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=9350712</t>
   </si>
 </sst>
 </file>
@@ -199,16 +205,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,31 +239,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="261.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="261.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -261,13 +271,23 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=10372280&amp;seller=20190703150015290&amp;osm=Ad09&amp;utm_source=BD_015457&amp;utm_medium=Google-SEM&amp;scm_activity=202305020429t78po3gu&amp;gclid=Cj0KCQjw756lBhDMARIsAEI0AgkKzf_28JK442SIDW88jIrLRpIrLK0_G4K7w-v_3WOnSubDuW7q_9QaAuwKEALw_wcB"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=11538594"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
